--- a/OSINT/excels/OSINT.xlsx
+++ b/OSINT/excels/OSINT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Simplon\1-cybersecurite\documentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Simplon\1-cybersecurite\2-rendu_activite\OSINT\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E98661A-B439-46C9-8101-83CF97D2E7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CD8B15-9D9A-4AFB-BF11-52A5E4FECE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Context" sheetId="2" r:id="rId1"/>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D28B1C-A78B-4439-B5DC-E7509CD0193B}">
   <dimension ref="F7:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +724,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447B0AEE-B652-48E5-849C-89A434FD851E}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1183,7 +1183,7 @@
       <c r="C2" s="8"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="152.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -1297,7 +1297,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
